--- a/Project6/outputs/prediction_elegans.xlsx
+++ b/Project6/outputs/prediction_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>image_1070.png</t>
+          <t>image_1013.png</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>image_1075.png</t>
+          <t>image_1015.png</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>image_1200.png</t>
+          <t>image_1023.png</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>image_1203.png</t>
+          <t>image_1025.png</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>image_1207.png</t>
+          <t>image_1026.png</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>image_1214.png</t>
+          <t>image_1037.png</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>image_1215.png</t>
+          <t>image_104.png</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>image_1221.png</t>
+          <t>image_1045.png</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,37 +528,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>image_1245.png</t>
+          <t>image_1048.png</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>image_1249.png</t>
+          <t>image_1049.png</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>image_1270.png</t>
+          <t>image_1060.png</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>image_1272.png</t>
+          <t>image_1068.png</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,17 +568,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>image_1279.png</t>
+          <t>image_1069.png</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>image_1486.png</t>
+          <t>image_1070.png</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,27 +588,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>image_1590.png</t>
+          <t>image_1071.png</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>image_1687.png</t>
+          <t>image_1072.png</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>image_1693.png</t>
+          <t>image_1083.png</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>image_1722.png</t>
+          <t>image_1084.png</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>image_1723.png</t>
+          <t>image_1088.png</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>image_1725.png</t>
+          <t>image_1090.png</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>image_1726.png</t>
+          <t>image_1092.png</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>image_1727.png</t>
+          <t>image_1096.png</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>image_1728.png</t>
+          <t>image_1101.png</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>image_1932.png</t>
+          <t>image_1113.png</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,17 +688,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>image_1952.png</t>
+          <t>image_1119.png</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>image_1961.png</t>
+          <t>image_1121.png</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>image_2019.png</t>
+          <t>image_1127.png</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>image_2029.png</t>
+          <t>image_1128.png</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>image_2044.png</t>
+          <t>image_1130.png</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>image_2058.png</t>
+          <t>image_1135.png</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,57 +748,57 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>image_2059.png</t>
+          <t>image_1143.png</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>image_21.png</t>
+          <t>image_1146.png</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>image_2233.png</t>
+          <t>image_1147.png</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>image_2248.png</t>
+          <t>image_1156.png</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>image_2285.png</t>
+          <t>image_116.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>image_2327.png</t>
+          <t>image_124.png</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>image_2370.png</t>
+          <t>image_125.png</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,27 +818,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>image_2505.png</t>
+          <t>image_126.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>image_2508.png</t>
+          <t>image_13.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>image_254.png</t>
+          <t>image_137.png</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,17 +848,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>image_257.png</t>
+          <t>image_142.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>image_2588.png</t>
+          <t>image_144.png</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>image_266.png</t>
+          <t>image_146.png</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>image_2682.png</t>
+          <t>image_148.png</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>image_2700.png</t>
+          <t>image_151.png</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>image_2704.png</t>
+          <t>image_154.png</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>image_2817.png</t>
+          <t>image_155.png</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>image_2978.png</t>
+          <t>image_158.png</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>image_3159.png</t>
+          <t>image_160.png</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>image_3167.png</t>
+          <t>image_167.png</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,27 +948,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>image_3454.png</t>
+          <t>image_18.png</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>image_3495.png</t>
+          <t>image_196.png</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>image_3499.png</t>
+          <t>image_2.png</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>image_3521.png</t>
+          <t>image_20.png</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>image_3646.png</t>
+          <t>image_205.png</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>image_3651.png</t>
+          <t>image_219.png</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,27 +1008,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>image_3652.png</t>
+          <t>image_225.png</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>image_3653.png</t>
+          <t>image_227.png</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>image_3655.png</t>
+          <t>image_234.png</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,17 +1038,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>image_4140.png</t>
+          <t>image_244.png</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>image_4303.png</t>
+          <t>image_255.png</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,17 +1058,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>image_4347.png</t>
+          <t>image_257.png</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>image_4449.png</t>
+          <t>image_262.png</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,87 +1078,87 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>image_4493.png</t>
+          <t>image_271.png</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>image_4554.png</t>
+          <t>image_28.png</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>image_4556.png</t>
+          <t>image_282.png</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>image_4561.png</t>
+          <t>image_283.png</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>image_4563.png</t>
+          <t>image_286.png</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>image_4565.png</t>
+          <t>image_29.png</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>image_4626.png</t>
+          <t>image_314.png</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>image_4632.png</t>
+          <t>image_317.png</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>image_4635.png</t>
+          <t>image_318.png</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>image_4636.png</t>
+          <t>image_32.png</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>image_4637.png</t>
+          <t>image_324.png</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>image_4642.png</t>
+          <t>image_333.png</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,37 +1198,37 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>image_4651.png</t>
+          <t>image_334.png</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>image_4663.png</t>
+          <t>image_349.png</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>image_4695.png</t>
+          <t>image_358.png</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>image_4698.png</t>
+          <t>image_360.png</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>image_4699.png</t>
+          <t>image_365.png</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>image_4700.png</t>
+          <t>image_375.png</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,27 +1258,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>image_4701.png</t>
+          <t>image_377.png</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>image_4703.png</t>
+          <t>image_381.png</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>image_4704.png</t>
+          <t>image_386.png</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,27 +1288,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>image_4707.png</t>
+          <t>image_388.png</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>image_4801.png</t>
+          <t>image_390.png</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>image_4805.png</t>
+          <t>image_393.png</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,37 +1318,37 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>image_4819.png</t>
+          <t>image_397.png</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>image_4824.png</t>
+          <t>image_40.png</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>image_4825.png</t>
+          <t>image_408.png</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>image_4829.png</t>
+          <t>image_418.png</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,37 +1358,37 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>image_483.png</t>
+          <t>image_425.png</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>image_4831.png</t>
+          <t>image_433.png</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>image_4835.png</t>
+          <t>image_441.png</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>image_4854.png</t>
+          <t>image_446.png</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>image_5065.png</t>
+          <t>image_451.png</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>image_5094.png</t>
+          <t>image_458.png</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>image_5100.png</t>
+          <t>image_459.png</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,27 +1428,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>image_5254.png</t>
+          <t>image_460.png</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>image_5258.png</t>
+          <t>image_462.png</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>image_5282.png</t>
+          <t>image_466.png</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>image_5284.png</t>
+          <t>image_469.png</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,27 +1468,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>image_543.png</t>
+          <t>image_472.png</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>image_544.png</t>
+          <t>image_484.png</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>image_546.png</t>
+          <t>image_485.png</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1498,17 +1498,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>image_549.png</t>
+          <t>image_488.png</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>image_5500.png</t>
+          <t>image_490.png</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,67 +1518,67 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>image_551.png</t>
+          <t>image_496.png</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>image_552.png</t>
+          <t>image_500.png</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>image_553.png</t>
+          <t>image_501.png</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>image_556.png</t>
+          <t>image_506.png</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>image_558.png</t>
+          <t>image_515.png</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>image_61.png</t>
+          <t>image_518.png</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>image_626.png</t>
+          <t>image_519.png</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,17 +1588,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>image_627.png</t>
+          <t>image_524.png</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>image_63.png</t>
+          <t>image_526.png</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,27 +1608,27 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>image_637.png</t>
+          <t>image_530.png</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>image_638.png</t>
+          <t>image_536.png</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>image_646.png</t>
+          <t>image_543.png</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>image_648.png</t>
+          <t>image_552.png</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>image_65.png</t>
+          <t>image_556.png</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,77 +1658,77 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>image_651.png</t>
+          <t>image_566.png</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>image_653.png</t>
+          <t>image_567.png</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>image_662.png</t>
+          <t>image_570.png</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>image_690.png</t>
+          <t>image_574.png</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>image_698.png</t>
+          <t>image_575.png</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>image_704.png</t>
+          <t>image_579.png</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>image_705.png</t>
+          <t>image_583.png</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>image_969.png</t>
+          <t>image_586.png</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>image_970.png</t>
+          <t>image_593.png</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1746,27 +1746,887 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
-      <c r="B132" t="inlineStr"/>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>image_625.png</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>total 0</t>
+          <t>image_627.png</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
+          <t>image_629.png</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>image_633.png</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>image_636.png</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>image_637.png</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>image_639.png</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>image_64.png</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>image_643.png</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>image_644.png</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>image_645.png</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>image_646.png</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>image_650.png</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>image_665.png</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>image_668.png</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>image_678.png</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>image_68.png</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>image_69.png</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>image_697.png</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>image_709.png</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>image_71.png</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>image_712.png</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>image_713.png</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>image_715.png</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>image_727.png</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>image_73.png</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>image_731.png</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>image_738.png</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>image_747.png</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>image_753.png</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>image_767.png</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>image_770.png</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>image_771.png</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>image_779.png</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>image_785.png</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>image_789.png</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>image_790.png</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>image_796.png</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>image_799.png</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>image_8.png</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>image_80.png</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>image_806.png</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>image_807.png</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>image_815.png</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>image_818.png</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>image_819.png</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>image_827.png</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>image_832.png</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>image_833.png</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>image_84.png</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>image_846.png</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>image_853.png</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>image_854.png</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>image_858.png</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>image_859.png</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>image_862.png</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>image_865.png</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>image_879.png</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>image_881.png</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>image_884.png</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>image_90.png</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>image_902.png</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>image_910.png</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>image_912.png</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>image_913.png</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>image_914.png</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>image_916.png</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>image_918.png</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>image_920.png</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>image_930.png</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>image_935.png</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>image_937.png</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>image_946.png</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>image_949.png</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>image_954.png</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>image_957.png</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>image_96.png</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>image_966.png</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>image_971.png</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>image_977.png</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>image_981.png</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>image_989.png</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>image_990.png</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>image_992.png</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>image_994.png</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>image_999.png</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>total 0</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
           <t>total 1</t>
         </is>
       </c>
-      <c r="B134" t="n">
-        <v>58</v>
+      <c r="B220" t="n">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
